--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan's PC\Desktop\Perf Clock\Part Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Projects\Documents\GitHub\PerfBoard-Clock-10_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79807C-04CE-452B-9C14-5AAB1709FFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B8129F-DA28-4195-8190-8EC4052647B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,9 +84,6 @@
     <t>3mm Blue LEDs</t>
   </si>
   <si>
-    <t>3mm awg solid wire</t>
-  </si>
-  <si>
     <t>2700 Hole Perf Board. 100 mil Spaced</t>
   </si>
   <si>
@@ -120,6 +106,9 @@
   </si>
   <si>
     <t>250 Pc kit. RGBYW Colors. Vf 3V</t>
+  </si>
+  <si>
+    <t>30 awg solid wire</t>
   </si>
 </sst>
 </file>
@@ -467,7 +456,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +487,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>10.9</v>
@@ -510,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,7 +516,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -544,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -561,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,7 +606,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>39.99</v>
@@ -662,7 +651,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>12.99</v>
@@ -674,12 +663,12 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <f>SUMPRODUCT(Table1[[Cost]:[Quantity]])</f>
